--- a/test_data/community_post_pubPost_test_data.xlsx
+++ b/test_data/community_post_pubPost_test_data.xlsx
@@ -1,40 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AllData" sheetId="1" r:id="rId1"/>
     <sheet name="TestData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>params</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>endpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApiName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestMethod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>community/post/pubPost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>用户发帖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"text": "超级便宜的衣服特卖了f000good"},{"img": "T1tVKTB4bT1RCvBVdK.jpg", "width": "922", "height": "1280", "text": "大家快来看啦，顶顶顶"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testDescribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传递headers和json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endpoint</t>
+  </si>
+  <si>
+    <t>RequestMethod</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
     <t>expectedresult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endpoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApiName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RequestMethod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>carTypeId</t>
+  </si>
+  <si>
+    <t>testDescribe</t>
+  </si>
+  <si>
+    <t>sql</t>
   </si>
   <si>
     <t>community/post/pubPost</t>
@@ -42,13 +88,22 @@
   </si>
   <si>
     <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'headers':{'token':token,'deviceType':deviceType,'platformNo':platformNo},'json':{'channelId':channelId,'imgTexts':eval(imgTexts),'postTypeId':postTypeId,'rewardTypeId':rewardTypeId,'carTypeId':carTypeId,'postLabelId':postLabelId}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>token</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>platformNo</t>
+    <t>{'token':'token','mobile':15810293085,'password':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'headers':{'token':token,'deviceType':'ios','platformNo':'iphone'},'json':{'channelId':'','imgTexts':'arry','postTypeId':'','rewardTypeId':'','carTypeId':'','postLabelId':''}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -56,143 +111,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>imgTexts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postLabelId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>306</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IOS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iphone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imgTexts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户发帖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"text": "超级便宜的衣服特卖了f000good"},{"img": "T1tVKTB4bT1RCvBVdK.jpg", "width": "922", "height": "1280", "text": "大家快来看啦，顶顶顶"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"text": "超级便宜的衣服特卖了f000good"},{"img": "T1tVKTB4bT1RCvBVdK.jpg", "width": "922", "height": "1280", "text": "大家快来看啦，顶顶顶"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewardTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>carTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postLabelId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token不能为空!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'headers':{'token':token,'deviceType':deviceType,'platformNo':platformNo},'json':{'channelId':channelId,'imgTexts':eval(imgTexts),'postTypeId':postTypeId,'rewardTypeId':rewardTypeId,'carTypeId':carTypeId,'postLabelId':postLabelId}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testDescribe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传递headers和json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布图文贴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布问题贴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布技师贴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布老司机帖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token不能为空</t>
+  </si>
+  <si>
+    <t>正常发图文帖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,10 +198,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -260,20 +213,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -320,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,10 +304,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,7 +338,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -563,14 +513,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
@@ -579,42 +529,42 @@
     <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="40.5">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>37</v>
+      <c r="D2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D6" s="5"/>
+    <row r="6" spans="1:5">
+      <c r="D6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -629,203 +579,104 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61" customWidth="1"/>
+    <col min="2" max="2" width="5.875" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="4" width="32.125" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="8" customWidth="1"/>
     <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.25" customWidth="1"/>
     <col min="11" max="11" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15" ht="93.75" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="K2" s="7"/>
+      <c r="L2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="J3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="N2" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
